--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2990212.374486322</v>
+        <v>2987668.564979239</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.11342416039179</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.6326967715748</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>208.5586495519871</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.8804318482953</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>11.36333584074436</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>260.2363572824534</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>259.6326967715747</v>
       </c>
       <c r="D5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>77.09393081742164</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285017</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>184.5337082881003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>279.4217116947813</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>219.1455308645033</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288416</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614511</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115233</v>
+        <v>20.24979976115256</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0328052099056</v>
+        <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>94.40198890128775</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>107.4985065573537</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7194509233178</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613248</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711322</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576184</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083817</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>130.4114987159129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444161</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740356</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3563,13 +3563,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.8591285852991</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881267</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.43453821042729</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3983,13 +3983,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722641</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,10 +4040,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>42.71572132711324</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.28849413961871</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>41.28849413961871</v>
+        <v>419.733006062639</v>
       </c>
       <c r="D2" t="n">
-        <v>41.28849413961871</v>
+        <v>419.733006062639</v>
       </c>
       <c r="E2" t="n">
-        <v>41.28849413961871</v>
+        <v>419.733006062639</v>
       </c>
       <c r="F2" t="n">
-        <v>34.34299339041523</v>
+        <v>412.7875053134355</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>399.8236925399911</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411526</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411526</v>
+        <v>419.733006062639</v>
       </c>
       <c r="W2" t="n">
-        <v>574.0438072739746</v>
+        <v>419.733006062639</v>
       </c>
       <c r="X2" t="n">
-        <v>307.6661507067967</v>
+        <v>419.733006062639</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.28849413961871</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5501396812475</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
         <v>21.09711040012049</v>
@@ -4419,40 +4419,40 @@
         <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V3" t="n">
-        <v>825.8543336350499</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W3" t="n">
-        <v>571.6169769068483</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="X3" t="n">
-        <v>363.7654767013155</v>
+        <v>227.0369405499137</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.7654767013155</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.9997464279937</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>776.9997464279937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>776.9997464279937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.377402995172</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.377402995172</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>776.9997464279937</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>776.9997464279937</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>776.9997464279937</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>776.9997464279937</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>776.9997464279937</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044907</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>503.6022960313622</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>713.6562631339672</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413019</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781153</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>273.4227970725825</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>273.4227970725825</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
         <v>21.09711040012049</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587012</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167155</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>868.4578348665295</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>868.4578348665295</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>868.4578348665295</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>647.6652557229994</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1079.294942698202</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="C8" t="n">
-        <v>710.3324257577904</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0667271510399</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398797</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478451</v>
+        <v>366.9512895589262</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685572</v>
+        <v>355.2854715909974</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685542</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685542</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467157</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607423</v>
+        <v>442.1757437607391</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045933</v>
+        <v>795.1862829045881</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209586</v>
+        <v>1655.591685209576</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940586</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550201</v>
+        <v>2359.356530550187</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661167</v>
+        <v>2540.564622661152</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342771</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342771</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342786</v>
+        <v>2351.810676439044</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342786</v>
+        <v>2098.229497964614</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999215</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999215</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>1856.034114738135</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.894782762324</v>
+        <v>760.4966303722515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010659</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199389</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818586876</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532321</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685542</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637189</v>
+        <v>238.3188829507227</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381362</v>
+        <v>422.9158793018211</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716178</v>
+        <v>1056.655162486657</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.06064994592</v>
+        <v>1419.721630960957</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418489</v>
+        <v>1806.806033433525</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.031862405879</v>
+        <v>2138.692843420913</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789041</v>
+        <v>2421.05522988887</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342786</v>
+        <v>2536.272628442614</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342771</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251702</v>
+        <v>2424.826280251687</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2230.816477685335</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751565</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519822</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791621</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586088</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821134</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>863.9767328681016</v>
+        <v>476.1390772876027</v>
       </c>
       <c r="C10" t="n">
-        <v>863.9767328681016</v>
+        <v>307.2028943596958</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6211885233665</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7080949409734</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473603</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685572</v>
+        <v>51.21125520685542</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380162</v>
+        <v>76.63468308380091</v>
       </c>
       <c r="K10" t="n">
-        <v>248.250021567657</v>
+        <v>248.2500215676557</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368902</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990404</v>
+        <v>823.865389990401</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931087</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477358</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412615</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1533.156055412615</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1310.17475388702</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.650771972006</v>
+        <v>1021.056380381662</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.966283766119</v>
+        <v>766.3718921757755</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.966283766119</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="X10" t="n">
-        <v>863.9767328681016</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="Y10" t="n">
-        <v>863.9767328681016</v>
+        <v>657.7875421178425</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2315.933335172869</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2096.33187019581</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,7 +5294,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876711</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597642</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474284</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474284</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.340348461441</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179108</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5595,25 +5595,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5783,7 +5783,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438179</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075823</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>545.3854261579761</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>397.472332575583</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>250.5823850776726</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>250.5823850776726</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6458,28 +6458,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,31 +6716,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436271</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7160,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280578</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362708</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,37 +7661,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.940507157679</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597687</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597687</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594121</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167801</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446522</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211391</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821393</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084401</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>35.68386670538763</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348501</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>51.3068350783268</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606931</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823369</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367988</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715146</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538569</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>86.99395161137537</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948071</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459221</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667957</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.970912116861</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>97.57899151911062</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734971.155231178</v>
+        <v>734971.1552311779</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734971.1552311779</v>
+        <v>734971.155231178</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580798</v>
+        <v>390680.0076580759</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606928</v>
+        <v>507909.2320606965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191143</v>
+        <v>68999.154419114</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101783</v>
+        <v>95270.23779101695</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954698</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.088912427077661e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662836</v>
+        <v>136854.4547662847</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756584</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756561</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756573</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756495</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756468</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756535</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756566</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.200356756455</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756481</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756686</v>
+        <v>9337.200356756493</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756486</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567902</v>
+        <v>92902.86757567873</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26488,7 +26488,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293793.546097365</v>
+        <v>-293793.5460973649</v>
       </c>
       <c r="C6" t="n">
-        <v>386294.4344938279</v>
+        <v>386294.4344938282</v>
       </c>
       <c r="D6" t="n">
-        <v>77448.1743845982</v>
+        <v>77448.17438460149</v>
       </c>
       <c r="E6" t="n">
-        <v>67705.64749514914</v>
+        <v>67670.90956970966</v>
       </c>
       <c r="F6" t="n">
-        <v>575614.8795558419</v>
+        <v>575580.141630406</v>
       </c>
       <c r="G6" t="n">
-        <v>575614.8795558419</v>
+        <v>575580.1416304065</v>
       </c>
       <c r="H6" t="n">
-        <v>575614.8795558421</v>
+        <v>575580.1416304061</v>
       </c>
       <c r="I6" t="n">
-        <v>575614.8795558424</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="J6" t="n">
-        <v>506615.7251367275</v>
+        <v>506580.9872112924</v>
       </c>
       <c r="K6" t="n">
-        <v>575614.8795558417</v>
+        <v>575580.1416304063</v>
       </c>
       <c r="L6" t="n">
-        <v>480344.641764824</v>
+        <v>480309.9038393896</v>
       </c>
       <c r="M6" t="n">
-        <v>442896.9038603727</v>
+        <v>442862.1659349365</v>
       </c>
       <c r="N6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304066</v>
       </c>
       <c r="O6" t="n">
-        <v>575614.8795558417</v>
+        <v>575580.1416304061</v>
       </c>
       <c r="P6" t="n">
-        <v>575614.879555842</v>
+        <v>575580.1416304061</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.611140533847076e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627835</v>
+        <v>933.7024595627803</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856965</v>
+        <v>640.1406900856928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.611140533847076e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.611140533847076e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933052</v>
+        <v>319.6474457933022</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788905</v>
+        <v>434.2730407788937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841866</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841869</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139519</v>
+        <v>532.5675980139561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841904</v>
+        <v>376.4268100841866</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139521</v>
+        <v>532.5675980139558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>399.7207504853182</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.56093585769315</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>24.24193759743812</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>1.802263929009086</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>193.3558284028494</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>26.28664105413765</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>105.6401949994328</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>89.4392528324457</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081378</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V7" t="n">
-        <v>67.60393503572772</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>102.5086583774805</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465025</v>
+        <v>65.76608425465076</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.6067276056316</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164542299</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.776449164527321</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>54.2134841169246</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>179.0244917792373</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.656949185851152e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-4.127906585693467e-14</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29326,10 +29326,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-5.427311258091203e-13</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-9.65407064635153e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-2.411577144875051e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.611140533847076e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.611140533847076e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.611140533847076e-14</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.904254531837068e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30703,13 +30703,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-2.315036438411535e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30760,10 +30760,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31282,16 +31282,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
         <v>433.4580399459292</v>
@@ -31300,25 +31300,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,22 +31434,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31461,19 +31461,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
         <v>0.06039885381339136</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885559</v>
+        <v>3.753577726885546</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546674</v>
+        <v>38.44132789546661</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972535</v>
+        <v>318.5802175972524</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763193</v>
+        <v>477.4691627763177</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354933</v>
+        <v>592.3427171354913</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359944</v>
+        <v>659.0954050359921</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752508</v>
+        <v>669.7602577525057</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307897</v>
+        <v>632.4356192307876</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983024</v>
+        <v>539.7691690983005</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542132</v>
+        <v>405.3441667542118</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.7856768864744</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140475</v>
+        <v>85.53465245140447</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436924</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035135</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026275</v>
+        <v>69.14683309026252</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.303051450217</v>
+        <v>324.3030514502159</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571283</v>
+        <v>436.0654741571268</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617169</v>
+        <v>508.8678404617152</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152217</v>
+        <v>522.3360580152199</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519086</v>
+        <v>477.835446451907</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947579</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463694</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366389</v>
       </c>
       <c r="T9" t="n">
-        <v>8.09502415413394</v>
+        <v>8.095024154133913</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.9698525484</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.63422518415865</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772513</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490125</v>
+        <v>250.3240987490116</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023117</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462343</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046248</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708732</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307418</v>
+        <v>75.70643221307392</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658779</v>
+        <v>29.34274778658769</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942755</v>
+        <v>7.19410091794273</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650338</v>
+        <v>0.09183958618650308</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745669</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093077</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.6051949514468</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447126</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508041</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.646348247173</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175684</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190388</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948323</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.4386117456598</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966403</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819419</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35109,10 +35109,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705672</v>
+        <v>137.5343130705661</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313388</v>
+        <v>257.3793117313371</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655061</v>
+        <v>356.576302165504</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087217</v>
+        <v>428.7491718087194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559171</v>
+        <v>440.3471941559148</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809103</v>
+        <v>402.3374078091008</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430329</v>
+        <v>308.536173343031</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797637</v>
+        <v>183.0384768797623</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234306</v>
+        <v>20.20013907234227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127597</v>
+        <v>188.9976037816841</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579973</v>
+        <v>186.4616124758569</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>640.1406900856928</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396986</v>
+        <v>366.7338065396969</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318885</v>
+        <v>390.9943459318866</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074642</v>
+        <v>335.2392020074626</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203661</v>
+        <v>285.2145317858153</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603488</v>
+        <v>116.3812106603479</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783539</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873323</v>
+        <v>25.68023017873281</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.9141240093278</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641523</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254629</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186645</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228593</v>
+        <v>54.82702814228544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35504,13 +35504,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999003</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591383</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790016</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134948685</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402486</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042453</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715727</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648384</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287857</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281402</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391646</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281396</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
